--- a/Daisy-xls/ResearchPages/_ContentIDs.xlsx
+++ b/Daisy-xls/ResearchPages/_ContentIDs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="891">
   <si>
     <t>Content ID</t>
   </si>
@@ -2691,12 +2691,189 @@
   <si>
     <t>featuredtrials</t>
   </si>
+  <si>
+    <t>pd-1-inhibition</t>
+  </si>
+  <si>
+    <t>/news-events/nci-update/2015/</t>
+  </si>
+  <si>
+    <t>Who Will Respond to PD-1 Inhibition? Study Provides Clues[#8266]</t>
+  </si>
+  <si>
+    <t>fertility-breast-cancer</t>
+  </si>
+  <si>
+    <t>Treatment Helps Preserve Fertility for Some Women with Breast Cancer[#8759]</t>
+  </si>
+  <si>
+    <t>exceptional-responders-initiative</t>
+  </si>
+  <si>
+    <t>The Exceptional Responders Initiative: Welcoming More Cases[#6583]</t>
+  </si>
+  <si>
+    <t>smoking-burden</t>
+  </si>
+  <si>
+    <t>Smoking?s Disease Burden: Worse than Previously Thought?[#6929]</t>
+  </si>
+  <si>
+    <t>smokeless-tobacco-report</t>
+  </si>
+  <si>
+    <t>Report Offers Comprehensive Look at Global Smokeless Tobacco Use[#4449]</t>
+  </si>
+  <si>
+    <t>precision-medicine-initiative-2016</t>
+  </si>
+  <si>
+    <t>Precision Medicine Initiative and Cancer Research[#1429]</t>
+  </si>
+  <si>
+    <t>melanoma-resources</t>
+  </si>
+  <si>
+    <t>New on Cancer.gov: Resources on Melanoma Therapies[#3515]</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>New from NCI: Resources, Tools, and News[#5300]</t>
+  </si>
+  <si>
+    <t>medicare-lung-cancer-screening</t>
+  </si>
+  <si>
+    <t>Medicare to Cover Annual Lung Cancer Screening for Some Beneficiaries[#6887]</t>
+  </si>
+  <si>
+    <t>tcga-head-and-neck-hpv</t>
+  </si>
+  <si>
+    <t>Genome Study Yields Clues to Head and Neck Cancers[#3234]</t>
+  </si>
+  <si>
+    <t>genetic-studies</t>
+  </si>
+  <si>
+    <t>Genetic Studies Yield Clues to Treatment-Related Side Effects in Children with Cancer[#3740]</t>
+  </si>
+  <si>
+    <t>palbociclib-breast-cancer</t>
+  </si>
+  <si>
+    <t>FDA Grants Palbociclib Accelerated Approval for Advanced Breast Cancer[#5577]</t>
+  </si>
+  <si>
+    <t>fda-approves-panobinostat</t>
+  </si>
+  <si>
+    <t>FDA Approves Panobinostat for Some Patients with Multiple Myeloma[#4191]</t>
+  </si>
+  <si>
+    <t>fda-approves-lenvima</t>
+  </si>
+  <si>
+    <t>FDA Approves Lenvatinib for Radioactive Iodine-Refractory Thyroid Cancer[#5542]</t>
+  </si>
+  <si>
+    <t>dinutuximab-neuroblastoma</t>
+  </si>
+  <si>
+    <t>FDA Approves First Therapy for High-Risk Neuroblastoma[#1594]</t>
+  </si>
+  <si>
+    <t>fda-opdivo</t>
+  </si>
+  <si>
+    <t>FDA Approves First Immunotherapy Treatment for Lung Cancer[#9783]</t>
+  </si>
+  <si>
+    <t>secondhand-smoke-exposure-plummets</t>
+  </si>
+  <si>
+    <t>Exposure to Secondhand Smoke Plummets, but Disparities Persist[#5885]</t>
+  </si>
+  <si>
+    <t>dna-minicircles</t>
+  </si>
+  <si>
+    <t>DNA ?Minicircles? Could Improve Cancer Detection, Study Suggests[#1748]</t>
+  </si>
+  <si>
+    <t>conference-report-hiv</t>
+  </si>
+  <si>
+    <t>Conference Report: Pursuing Progress Against HIV-Related Cancers[#8198]</t>
+  </si>
+  <si>
+    <t>bacterial-biofilms-provide-clues</t>
+  </si>
+  <si>
+    <t>Bacterial Biofilms Provide Clues into Colorectal Cancer Risk[#3040]</t>
+  </si>
+  <si>
+    <t>gut-microbiome</t>
+  </si>
+  <si>
+    <t>Analyzing the Gut Microbiome to Help Detect Colorectal Cancer[#6988]</t>
+  </si>
+  <si>
+    <t>fda-nine-new-cancer-drugs</t>
+  </si>
+  <si>
+    <t>A Good Year: FDA Approved Nine New Cancer Drugs in 2014[#5999]</t>
+  </si>
+  <si>
+    <t>gilbert-interview</t>
+  </si>
+  <si>
+    <t>?Flipping the Switch?: An Interview with Dr. Mark Gilbert, Chief of NIH?s Neuro-Oncology Branch[#5496]</t>
+  </si>
+  <si>
+    <t>who-responds-immunotherapy</t>
+  </si>
+  <si>
+    <t>/news-events/nci-update/2014/</t>
+  </si>
+  <si>
+    <t>Which Patients Will Benefit from Immunotherapy for Cancer? Some Hints Emerge[#5916]</t>
+  </si>
+  <si>
+    <t>treatment-resistance</t>
+  </si>
+  <si>
+    <t>Method for Identifying Combination Therapies to Combat Treatment Resistance Shows Promise[#2557]</t>
+  </si>
+  <si>
+    <t>hpv-vaccines-lowy</t>
+  </si>
+  <si>
+    <t>Human Papillomavirus (HPV) Vaccines: An Interview with Douglas R. Lowy, M.D.[#7322]</t>
+  </si>
+  <si>
+    <t>e-cigarettes</t>
+  </si>
+  <si>
+    <t>Debate, Research on E-Cigarettes Continue[#6652]</t>
+  </si>
+  <si>
+    <t>NCIresearchfuture</t>
+  </si>
+  <si>
+    <t>Building on Opportunities in Cancer Research: NCI?s Annual Plan and Budget Proposal for FY 2016[#8656]</t>
+  </si>
+  <si>
+    <t>NCI-Update</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2864,6 +3041,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6.85"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3231,7 +3414,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3241,6 +3424,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3586,11 +3772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E411"/>
+  <dimension ref="A1:E439"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3622,50 +3808,50 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>487752</v>
+        <v>550989</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>775</v>
+        <v>290</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>776</v>
+        <v>426</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>777</v>
+        <v>627</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>457193</v>
+        <v>885683</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>778</v>
+        <v>182</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>776</v>
+        <v>426</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>779</v>
+        <v>519</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>488059</v>
+        <v>488505</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>780</v>
+        <v>817</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>828</v>
@@ -3673,16 +3859,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>487870</v>
+        <v>479140</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>782</v>
+        <v>821</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>783</v>
+        <v>822</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>828</v>
@@ -3690,16 +3876,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>487344</v>
+        <v>481162</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>784</v>
+        <v>814</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>785</v>
+        <v>815</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>828</v>
@@ -3707,16 +3893,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>484117</v>
+        <v>484116</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>828</v>
@@ -3724,16 +3910,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>488730</v>
+        <v>483058</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>828</v>
@@ -3741,16 +3927,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>484116</v>
+        <v>487763</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>790</v>
+        <v>819</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>791</v>
+        <v>820</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>828</v>
@@ -3758,16 +3944,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>488731</v>
+        <v>457193</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>828</v>
@@ -3775,16 +3961,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>488732</v>
+        <v>483372</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>795</v>
+        <v>826</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>828</v>
@@ -3792,16 +3978,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>488733</v>
+        <v>484117</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>828</v>
@@ -3809,16 +3995,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>487805</v>
+        <v>487344</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>828</v>
@@ -3826,16 +4012,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>488734</v>
+        <v>487752</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>801</v>
+        <v>777</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>828</v>
@@ -3843,16 +4029,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>488735</v>
+        <v>487805</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>828</v>
@@ -3860,16 +4046,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>488911</v>
+        <v>487870</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>828</v>
@@ -3877,16 +4063,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>483058</v>
+        <v>488040</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>828</v>
@@ -3894,16 +4080,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>488736</v>
+        <v>488059</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>808</v>
+        <v>780</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>809</v>
+        <v>781</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>828</v>
@@ -3911,16 +4097,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>488737</v>
+        <v>488911</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>828</v>
@@ -3928,16 +4114,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>488738</v>
+        <v>488730</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>812</v>
+        <v>788</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>813</v>
+        <v>789</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>828</v>
@@ -3945,16 +4131,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>481162</v>
+        <v>488731</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>828</v>
@@ -3962,31 +4148,33 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>16169</v>
+        <v>488732</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>795</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>488505</v>
+        <v>488733</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>828</v>
@@ -3994,16 +4182,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>487763</v>
+        <v>488734</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>828</v>
@@ -4011,16 +4199,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>479140</v>
+        <v>488735</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>828</v>
@@ -4028,16 +4216,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>488040</v>
+        <v>488736</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>828</v>
@@ -4045,16 +4233,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>483372</v>
+        <v>488737</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>776</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>828</v>
@@ -4062,118 +4250,118 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>317040</v>
+        <v>488738</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3</v>
+        <v>812</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>686</v>
+        <v>776</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>687</v>
+        <v>813</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>211442</v>
+        <v>547099</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>688</v>
+        <v>556</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>300494</v>
+        <v>99866</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>689</v>
+        <v>746</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>13591</v>
+        <v>699543</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>690</v>
+        <v>649</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>84773</v>
+        <v>468217</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>12956</v>
+        <v>15762</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>692</v>
+        <v>496</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>661405</v>
+        <v>79035</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>693</v>
+        <v>772</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>829</v>
@@ -4181,339 +4369,339 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>911742</v>
+        <v>87572</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>10</v>
+        <v>373</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>694</v>
+        <v>411</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>139015</v>
+        <v>919763</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>695</v>
+        <v>655</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>78414</v>
+        <v>316878</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>12</v>
+        <v>352</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>696</v>
+        <v>390</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>468217</v>
+        <v>814561</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>697</v>
+        <v>574</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>76380</v>
+        <v>750237</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>698</v>
+        <v>495</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>150013</v>
+        <v>15496</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>699</v>
+        <v>615</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>150014</v>
+        <v>919566</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>700</v>
+        <v>638</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>419549</v>
+        <v>481101</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>17</v>
+        <v>283</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>701</v>
+        <v>620</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>13750</v>
+        <v>679657</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>702</v>
+        <v>523</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>13089</v>
+        <v>255466</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>703</v>
+        <v>605</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>84176</v>
+        <v>139029</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>704</v>
+        <v>750</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>15528</v>
+        <v>14431</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>21</v>
+        <v>289</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>705</v>
+        <v>626</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>73712</v>
+        <v>108040</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>706</v>
+        <v>488</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>84135</v>
+        <v>637656</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>707</v>
+        <v>577</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>70033</v>
+        <v>506205</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>708</v>
+        <v>530</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>317771</v>
+        <v>699643</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>25</v>
+        <v>385</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>709</v>
+        <v>423</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>73714</v>
+        <v>404280</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>710</v>
+        <v>608</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>545408</v>
+        <v>79345</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>711</v>
+        <v>483</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>317031</v>
+        <v>720365</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>712</v>
+        <v>471</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>317032</v>
+        <v>70025</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>829</v>
@@ -4521,152 +4709,152 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>94636</v>
+        <v>14561</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>714</v>
+        <v>466</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>94637</v>
+        <v>109763</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>715</v>
+        <v>475</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>637658</v>
+        <v>12969</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>32</v>
+        <v>302</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>716</v>
+        <v>639</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>13482</v>
+        <v>583442</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>717</v>
+        <v>567</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>318053</v>
+        <v>546310</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>718</v>
+        <v>607</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>586922</v>
+        <v>129842</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>719</v>
+        <v>442</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>14014</v>
+        <v>317507</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>720</v>
+        <v>610</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>198369</v>
+        <v>14010</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>37</v>
+        <v>377</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>721</v>
+        <v>415</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>136764</v>
+        <v>70473</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>722</v>
+        <v>753</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>829</v>
@@ -4674,118 +4862,118 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>15347</v>
+        <v>579785</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>723</v>
+        <v>650</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>84042</v>
+        <v>107272</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>139068</v>
+        <v>646038</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>725</v>
+        <v>447</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>836262</v>
+        <v>300494</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>726</v>
+        <v>689</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>454332</v>
+        <v>13591</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>727</v>
+        <v>690</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>87570</v>
+        <v>15036</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>728</v>
+        <v>755</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>476945</v>
+        <v>126781</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>829</v>
@@ -4793,67 +4981,67 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>126774</v>
+        <v>84128</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>15802</v>
+        <v>105037</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>731</v>
+        <v>508</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>315480</v>
+        <v>776849</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>732</v>
+        <v>520</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>13549</v>
+        <v>253797</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>733</v>
+        <v>762</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>829</v>
@@ -4861,33 +5049,33 @@
     </row>
     <row r="75" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>178191</v>
+        <v>583416</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>50</v>
+        <v>306</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>734</v>
+        <v>643</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>79721</v>
+        <v>723108</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>829</v>
@@ -4895,16 +5083,16 @@
     </row>
     <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>126781</v>
+        <v>661405</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>736</v>
+        <v>693</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>829</v>
@@ -4912,16 +5100,16 @@
     </row>
     <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>890840</v>
+        <v>708410</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>737</v>
+        <v>766</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>829</v>
@@ -4929,33 +5117,33 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>15160</v>
+        <v>13152</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>54</v>
+        <v>386</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>892451</v>
+        <v>150013</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>739</v>
+        <v>699</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>829</v>
@@ -4963,33 +5151,33 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>99865</v>
+        <v>312165</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>56</v>
+        <v>368</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>740</v>
+        <v>406</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>14838</v>
+        <v>87570</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>829</v>
@@ -4997,33 +5185,33 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>139034</v>
+        <v>254563</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>58</v>
+        <v>381</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>742</v>
+        <v>419</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>315512</v>
+        <v>890811</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>743</v>
+        <v>769</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>829</v>
@@ -5031,101 +5219,101 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>84128</v>
+        <v>145200</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>60</v>
+        <v>356</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>744</v>
+        <v>394</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>723108</v>
+        <v>449472</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>61</v>
+        <v>354</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>745</v>
+        <v>392</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>99866</v>
+        <v>586922</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>13377</v>
+        <v>583407</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>747</v>
+        <v>625</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>70026</v>
+        <v>15715</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>64</v>
+        <v>361</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>748</v>
+        <v>399</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>70025</v>
+        <v>84135</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>749</v>
+        <v>707</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>829</v>
@@ -5133,203 +5321,203 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>139029</v>
+        <v>73714</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>559046</v>
+        <v>217876</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>751</v>
+        <v>527</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>70472</v>
+        <v>14919</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>752</v>
+        <v>562</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>70473</v>
+        <v>461896</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>69</v>
+        <v>369</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>753</v>
+        <v>407</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>139071</v>
+        <v>73676</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>70</v>
+        <v>254</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>754</v>
+        <v>591</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>15036</v>
+        <v>497641</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>71</v>
+        <v>298</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>755</v>
+        <v>635</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>107272</v>
+        <v>903677</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>756</v>
+        <v>646</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>797388</v>
+        <v>14036</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>73</v>
+        <v>367</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>757</v>
+        <v>405</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>797387</v>
+        <v>253980</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>758</v>
+        <v>489</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>609331</v>
+        <v>300956</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>759</v>
+        <v>525</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>476523</v>
+        <v>15215</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>760</v>
+        <v>401</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>150218</v>
+        <v>545408</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>761</v>
+        <v>711</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>829</v>
@@ -5337,118 +5525,118 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>253797</v>
+        <v>14957</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>762</v>
+        <v>396</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>538205</v>
+        <v>564059</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>763</v>
+        <v>586</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>318034</v>
+        <v>797388</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>772122</v>
+        <v>84176</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>765</v>
+        <v>704</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>708410</v>
+        <v>833066</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>766</v>
+        <v>450</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>69986</v>
+        <v>178191</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>767</v>
+        <v>734</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>890792</v>
+        <v>94637</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>768</v>
+        <v>715</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>829</v>
@@ -5456,33 +5644,33 @@
     </row>
     <row r="110" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>890811</v>
+        <v>454332</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>769</v>
+        <v>727</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>623825</v>
+        <v>318053</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>770</v>
+        <v>718</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>829</v>
@@ -5490,67 +5678,67 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>315415</v>
+        <v>565077</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>771</v>
+        <v>429</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>79035</v>
+        <v>225392</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>88</v>
+        <v>384</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>772</v>
+        <v>422</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>138990</v>
+        <v>13824</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>686</v>
+        <v>426</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>773</v>
+        <v>478</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>14099</v>
+        <v>655586</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>830</v>
@@ -5558,50 +5746,50 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>254313</v>
+        <v>623825</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>428</v>
+        <v>770</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>565077</v>
+        <v>84042</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>429</v>
+        <v>724</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>333718</v>
+        <v>89635</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>93</v>
+        <v>304</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>430</v>
+        <v>641</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>830</v>
@@ -5609,50 +5797,50 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>806040</v>
+        <v>317031</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>431</v>
+        <v>712</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>641736</v>
+        <v>318034</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>432</v>
+        <v>764</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>110556</v>
+        <v>84776</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>96</v>
+        <v>292</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>433</v>
+        <v>629</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>830</v>
@@ -5660,16 +5848,16 @@
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>15622</v>
+        <v>99889</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>434</v>
+        <v>509</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>830</v>
@@ -5677,67 +5865,67 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>106644</v>
+        <v>911742</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>435</v>
+        <v>694</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>320912</v>
+        <v>416992</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>436</v>
+        <v>582</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>172406</v>
+        <v>14809</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>437</v>
+        <v>603</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>14473</v>
+        <v>441495</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>101</v>
+        <v>343</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>438</v>
+        <v>680</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>830</v>
@@ -5745,16 +5933,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>14785</v>
+        <v>460185</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>830</v>
@@ -5762,67 +5950,67 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>212928</v>
+        <v>167985</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>103</v>
+        <v>256</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>440</v>
+        <v>593</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>129840</v>
+        <v>198369</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>441</v>
+        <v>721</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>129842</v>
+        <v>394026</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>13854</v>
+        <v>656279</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>830</v>
@@ -5830,16 +6018,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>881866</v>
+        <v>13831</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>830</v>
@@ -5847,16 +6035,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>836586</v>
+        <v>217874</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>445</v>
+        <v>529</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>830</v>
@@ -5864,67 +6052,67 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>138965</v>
+        <v>109762</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>646038</v>
+        <v>65883</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>110</v>
+        <v>336</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>447</v>
+        <v>673</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>587570</v>
+        <v>649782</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>111</v>
+        <v>329</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>448</v>
+        <v>666</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>87466</v>
+        <v>441136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>112</v>
+        <v>337</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>449</v>
+        <v>674</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>830</v>
@@ -5932,33 +6120,33 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>833066</v>
+        <v>13089</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>450</v>
+        <v>703</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>394938</v>
+        <v>595560</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>830</v>
@@ -5966,118 +6154,118 @@
     </row>
     <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>694946</v>
+        <v>797387</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>452</v>
+        <v>758</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>636603</v>
+        <v>899255</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>116</v>
+        <v>344</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>453</v>
+        <v>681</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>707517</v>
+        <v>14838</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>454</v>
+        <v>741</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>14873</v>
+        <v>13482</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>455</v>
+        <v>717</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>111070</v>
+        <v>637667</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>119</v>
+        <v>375</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>456</v>
+        <v>413</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>833061</v>
+        <v>715464</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>120</v>
+        <v>365</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>15234</v>
+        <v>725920</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>121</v>
+        <v>321</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>458</v>
+        <v>658</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>830</v>
@@ -6085,16 +6273,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>585035</v>
+        <v>459625</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>122</v>
+        <v>335</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>459</v>
+        <v>672</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>830</v>
@@ -6102,16 +6290,16 @@
     </row>
     <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>459325</v>
+        <v>917482</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>123</v>
+        <v>253</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>460</v>
+        <v>590</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>830</v>
@@ -6119,16 +6307,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>660484</v>
+        <v>258564</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>461</v>
+        <v>546</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>830</v>
@@ -6136,16 +6324,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>656279</v>
+        <v>480964</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>830</v>
@@ -6153,135 +6341,135 @@
     </row>
     <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>662171</v>
+        <v>587570</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>112305</v>
+        <v>150218</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>464</v>
+        <v>761</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>549597</v>
+        <v>79346</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>128</v>
+        <v>380</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>14561</v>
+        <v>136764</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>466</v>
+        <v>722</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>304596</v>
+        <v>617567</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>13831</v>
+        <v>211442</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>468</v>
+        <v>688</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>576429</v>
+        <v>315480</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>469</v>
+        <v>732</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>816561</v>
+        <v>678411</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>470</v>
+        <v>559</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>830</v>
@@ -6289,16 +6477,16 @@
     </row>
     <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>720365</v>
+        <v>789793</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>471</v>
+        <v>539</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>830</v>
@@ -6306,135 +6494,135 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>525098</v>
+        <v>585035</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>610152</v>
+        <v>79721</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>473</v>
+        <v>735</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>109762</v>
+        <v>541748</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>474</v>
+        <v>636</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>109763</v>
+        <v>809150</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>138</v>
+        <v>326</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>475</v>
+        <v>663</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>900750</v>
+        <v>826428</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>139</v>
+        <v>374</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>476</v>
+        <v>412</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>88746</v>
+        <v>14708</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>140</v>
+        <v>382</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>477</v>
+        <v>420</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>13824</v>
+        <v>315415</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>478</v>
+        <v>771</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>809187</v>
+        <v>881866</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>830</v>
@@ -6442,16 +6630,16 @@
     </row>
     <row r="168" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>674711</v>
+        <v>861405</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>830</v>
@@ -6459,33 +6647,33 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>621732</v>
+        <v>13137</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>109352</v>
+        <v>228639</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>830</v>
@@ -6493,50 +6681,50 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>79345</v>
+        <v>320912</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>14169</v>
+        <v>14814</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>484</v>
+        <v>566</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>13729</v>
+        <v>778109</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>485</v>
+        <v>631</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>830</v>
@@ -6544,67 +6732,67 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>585034</v>
+        <v>777770</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>149</v>
+        <v>316</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>862420</v>
+        <v>476823</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>108040</v>
+        <v>633382</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>151</v>
+        <v>338</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>488</v>
+        <v>675</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>253980</v>
+        <v>810173</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>489</v>
+        <v>575</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>830</v>
@@ -6612,16 +6800,16 @@
     </row>
     <row r="178" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>74419</v>
+        <v>12907</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>490</v>
+        <v>604</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>830</v>
@@ -6629,16 +6817,16 @@
     </row>
     <row r="179" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>655586</v>
+        <v>862420</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>830</v>
@@ -6646,16 +6834,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>744907</v>
+        <v>731273</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>492</v>
+        <v>657</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>830</v>
@@ -6663,67 +6851,67 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
-        <v>14233</v>
+        <v>14055</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>156</v>
+        <v>317</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>493</v>
+        <v>654</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
-        <v>14130</v>
+        <v>138965</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>494</v>
+        <v>446</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>750237</v>
+        <v>698539</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>15762</v>
+        <v>84826</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>830</v>
@@ -6731,33 +6919,33 @@
     </row>
     <row r="185" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
-        <v>764905</v>
+        <v>837579</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>228639</v>
+        <v>836252</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>161</v>
+        <v>296</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>498</v>
+        <v>633</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>830</v>
@@ -6765,16 +6953,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>480964</v>
+        <v>327700</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>830</v>
@@ -6782,16 +6970,16 @@
     </row>
     <row r="188" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>225408</v>
+        <v>809187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>830</v>
@@ -6799,16 +6987,16 @@
     </row>
     <row r="189" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>13286</v>
+        <v>84002</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>501</v>
+        <v>571</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>830</v>
@@ -6816,33 +7004,33 @@
     </row>
     <row r="190" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>861405</v>
+        <v>13651</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>502</v>
+        <v>544</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>112358</v>
+        <v>822011</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>830</v>
@@ -6850,16 +7038,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>505605</v>
+        <v>800243</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>504</v>
+        <v>588</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>830</v>
@@ -6867,33 +7055,33 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>327700</v>
+        <v>506116</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>505</v>
+        <v>612</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
-        <v>83949</v>
+        <v>832769</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>506</v>
+        <v>583</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>830</v>
@@ -6901,33 +7089,33 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
-        <v>45779</v>
+        <v>79397</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>170</v>
+        <v>319</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>507</v>
+        <v>656</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
-        <v>105037</v>
+        <v>727551</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>171</v>
+        <v>345</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>508</v>
+        <v>682</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>830</v>
@@ -6935,101 +7123,101 @@
     </row>
     <row r="197" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
-        <v>99889</v>
+        <v>581612</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
-        <v>112174</v>
+        <v>226145</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>173</v>
+        <v>340</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>510</v>
+        <v>677</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
-        <v>587031</v>
+        <v>919347</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>174</v>
+        <v>341</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>511</v>
+        <v>678</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
-        <v>480973</v>
+        <v>13577</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>512</v>
+        <v>594</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
-        <v>142577</v>
+        <v>583439</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>176</v>
+        <v>261</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>513</v>
+        <v>598</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
-        <v>574508</v>
+        <v>45779</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>830</v>
@@ -7037,33 +7225,33 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <v>583484</v>
+        <v>476945</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>515</v>
+        <v>729</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>84041</v>
+        <v>109846</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>179</v>
+        <v>307</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>516</v>
+        <v>644</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>830</v>
@@ -7071,16 +7259,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
-        <v>419282</v>
+        <v>826715</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>830</v>
@@ -7088,33 +7276,33 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <v>65185</v>
+        <v>212928</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>518</v>
+        <v>440</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
-        <v>885683</v>
+        <v>254313</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>519</v>
+        <v>428</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>830</v>
@@ -7122,33 +7310,33 @@
     </row>
     <row r="208" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
-        <v>776849</v>
+        <v>674711</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <v>68667</v>
+        <v>14954</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>521</v>
+        <v>617</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>830</v>
@@ -7156,33 +7344,33 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
-        <v>842607</v>
+        <v>476523</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>522</v>
+        <v>760</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
-        <v>679657</v>
+        <v>111070</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>523</v>
+        <v>456</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>830</v>
@@ -7190,33 +7378,33 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <v>300957</v>
+        <v>94636</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>524</v>
+        <v>714</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
-        <v>300956</v>
+        <v>777515</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>188</v>
+        <v>333</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>525</v>
+        <v>670</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>830</v>
@@ -7224,16 +7412,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
-        <v>595560</v>
+        <v>591260</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>189</v>
+        <v>346</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>526</v>
+        <v>683</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>830</v>
@@ -7241,101 +7429,101 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
-        <v>217876</v>
+        <v>13062</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>190</v>
+        <v>332</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
-        <v>511136</v>
+        <v>74419</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
-        <v>217874</v>
+        <v>14873</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>529</v>
+        <v>455</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
-        <v>506205</v>
+        <v>13592</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>530</v>
+        <v>619</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
-        <v>460185</v>
+        <v>13237</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>531</v>
+        <v>587</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
-        <v>583483</v>
+        <v>14018</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>532</v>
+        <v>578</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>830</v>
@@ -7343,84 +7531,84 @@
     </row>
     <row r="221" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
-        <v>697682</v>
+        <v>14473</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>533</v>
+        <v>438</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
-        <v>698539</v>
+        <v>13854</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>534</v>
+        <v>443</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
-        <v>14392</v>
+        <v>13264</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
-        <v>107882</v>
+        <v>84014</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
-        <v>617567</v>
+        <v>13286</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>830</v>
@@ -7428,50 +7616,50 @@
     </row>
     <row r="226" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
-        <v>14256</v>
+        <v>13561</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
-        <v>789793</v>
+        <v>15234</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>539</v>
+        <v>458</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
-        <v>905761</v>
+        <v>15703</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>540</v>
+        <v>652</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>830</v>
@@ -7479,16 +7667,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
-        <v>84826</v>
+        <v>84013</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>830</v>
@@ -7496,16 +7684,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
-        <v>13264</v>
+        <v>15791</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>830</v>
@@ -7513,16 +7701,16 @@
     </row>
     <row r="231" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
-        <v>125982</v>
+        <v>792942</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>206</v>
+        <v>291</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>543</v>
+        <v>628</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>830</v>
@@ -7530,16 +7718,16 @@
     </row>
     <row r="232" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
-        <v>13651</v>
+        <v>15622</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>544</v>
+        <v>434</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>830</v>
@@ -7547,16 +7735,16 @@
     </row>
     <row r="233" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
-        <v>317012</v>
+        <v>814538</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>830</v>
@@ -7564,16 +7752,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
-        <v>258564</v>
+        <v>833061</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>830</v>
@@ -7581,16 +7769,16 @@
     </row>
     <row r="235" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
-        <v>869838</v>
+        <v>317012</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>830</v>
@@ -7598,67 +7786,67 @@
     </row>
     <row r="236" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
-        <v>467459</v>
+        <v>662171</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>548</v>
+        <v>463</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
-        <v>476823</v>
+        <v>160933</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>212</v>
+        <v>348</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>549</v>
+        <v>685</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
-        <v>837579</v>
+        <v>73725</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
-        <v>15791</v>
+        <v>574508</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>551</v>
+        <v>514</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>830</v>
@@ -7666,33 +7854,33 @@
     </row>
     <row r="240" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
-        <v>804905</v>
+        <v>129840</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>552</v>
+        <v>441</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
-        <v>286359</v>
+        <v>14785</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>216</v>
+        <v>102</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>553</v>
+        <v>439</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>830</v>
@@ -7700,33 +7888,33 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
-        <v>822011</v>
+        <v>13817</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
-        <v>13137</v>
+        <v>109352</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>555</v>
+        <v>482</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>830</v>
@@ -7734,67 +7922,67 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
-        <v>547099</v>
+        <v>576429</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
-        <v>587450</v>
+        <v>587031</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
-        <v>793147</v>
+        <v>505605</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>558</v>
+        <v>504</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
-        <v>678411</v>
+        <v>14099</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>559</v>
+        <v>427</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>830</v>
@@ -7802,16 +7990,16 @@
     </row>
     <row r="248" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
-        <v>122446</v>
+        <v>694946</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>560</v>
+        <v>452</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>830</v>
@@ -7819,16 +8007,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
-        <v>856983</v>
+        <v>126666</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>561</v>
+        <v>647</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>830</v>
@@ -7836,33 +8024,33 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
-        <v>14919</v>
+        <v>109052</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>225</v>
+        <v>330</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>562</v>
+        <v>667</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
-        <v>804882</v>
+        <v>610152</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>563</v>
+        <v>473</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>830</v>
@@ -7870,16 +8058,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
-        <v>86999</v>
+        <v>707517</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>564</v>
+        <v>454</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>830</v>
@@ -7887,16 +8075,16 @@
     </row>
     <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
-        <v>583441</v>
+        <v>764905</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>565</v>
+        <v>497</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>830</v>
@@ -7904,33 +8092,33 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
-        <v>14814</v>
+        <v>125982</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
-        <v>583442</v>
+        <v>314962</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>830</v>
@@ -7938,33 +8126,33 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
-        <v>14819</v>
+        <v>84041</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>568</v>
+        <v>516</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
-        <v>748347</v>
+        <v>511136</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>830</v>
@@ -7972,16 +8160,16 @@
     </row>
     <row r="258" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
-        <v>13550</v>
+        <v>459325</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>570</v>
+        <v>460</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>830</v>
@@ -7989,16 +8177,16 @@
     </row>
     <row r="259" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
-        <v>84002</v>
+        <v>122446</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>830</v>
@@ -8006,50 +8194,50 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
-        <v>301280</v>
+        <v>660484</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>572</v>
+        <v>461</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
-        <v>68608</v>
+        <v>804882</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
-        <v>814561</v>
+        <v>702831</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>830</v>
@@ -8057,16 +8245,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
-        <v>810173</v>
+        <v>300957</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>830</v>
@@ -8074,50 +8262,50 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
-        <v>821434</v>
+        <v>301280</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E264" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
-        <v>637656</v>
+        <v>107882</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="E265" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
-        <v>14018</v>
+        <v>68608</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>830</v>
@@ -8125,50 +8313,50 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
-        <v>430356</v>
+        <v>14313</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>579</v>
+        <v>668</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
-        <v>430358</v>
+        <v>14060</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>580</v>
+        <v>632</v>
       </c>
       <c r="E268" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
-        <v>581612</v>
+        <v>621732</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>581</v>
+        <v>481</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>830</v>
@@ -8176,33 +8364,33 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
-        <v>416992</v>
+        <v>394938</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>582</v>
+        <v>451</v>
       </c>
       <c r="E270" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
-        <v>832769</v>
+        <v>479072</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>583</v>
+        <v>665</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>830</v>
@@ -8210,16 +8398,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
-        <v>14624</v>
+        <v>434303</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>584</v>
+        <v>637</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>830</v>
@@ -8227,16 +8415,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
-        <v>311599</v>
+        <v>457112</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>585</v>
+        <v>671</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>830</v>
@@ -8244,33 +8432,33 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
-        <v>564059</v>
+        <v>333101</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
-        <v>13237</v>
+        <v>546311</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>830</v>
@@ -8278,33 +8466,33 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
-        <v>800243</v>
+        <v>106644</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>588</v>
+        <v>435</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
-        <v>333101</v>
+        <v>87466</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>252</v>
+        <v>112</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>589</v>
+        <v>449</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>830</v>
@@ -8312,67 +8500,67 @@
     </row>
     <row r="278" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
-        <v>917482</v>
+        <v>112358</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>590</v>
+        <v>503</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
-        <v>73676</v>
+        <v>675784</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>591</v>
+        <v>676</v>
       </c>
       <c r="E279" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
-        <v>637154</v>
+        <v>88746</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>592</v>
+        <v>477</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
-        <v>167985</v>
+        <v>900750</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>593</v>
+        <v>476</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>830</v>
@@ -8380,67 +8568,67 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
-        <v>13577</v>
+        <v>15802</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>257</v>
+        <v>47</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>594</v>
+        <v>731</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
-        <v>564063</v>
+        <v>890792</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>595</v>
+        <v>768</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
-        <v>564061</v>
+        <v>890840</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>596</v>
+        <v>737</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
-        <v>314962</v>
+        <v>583441</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>830</v>
@@ -8448,135 +8636,135 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
-        <v>583439</v>
+        <v>68632</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>261</v>
+        <v>370</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>598</v>
+        <v>408</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
-        <v>583437</v>
+        <v>419549</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>262</v>
+        <v>17</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>599</v>
+        <v>701</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
-        <v>84014</v>
+        <v>583404</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="E288" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
-        <v>13561</v>
+        <v>13356</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>601</v>
+        <v>395</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
-        <v>84013</v>
+        <v>83949</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>602</v>
+        <v>506</v>
       </c>
       <c r="E290" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
-        <v>14809</v>
+        <v>99865</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>266</v>
+        <v>56</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>603</v>
+        <v>740</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
-        <v>12907</v>
+        <v>14256</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="E292" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
-        <v>255466</v>
+        <v>142577</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>605</v>
+        <v>513</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>830</v>
@@ -8584,16 +8772,16 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
-        <v>546311</v>
+        <v>14819</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>606</v>
+        <v>568</v>
       </c>
       <c r="E294" s="3" t="s">
         <v>830</v>
@@ -8601,16 +8789,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
-        <v>546310</v>
+        <v>143618</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>830</v>
@@ -8618,33 +8806,33 @@
     </row>
     <row r="296" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
-        <v>404280</v>
+        <v>637658</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>271</v>
+        <v>32</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>608</v>
+        <v>716</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
-        <v>814538</v>
+        <v>583483</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>609</v>
+        <v>532</v>
       </c>
       <c r="E297" s="3" t="s">
         <v>830</v>
@@ -8652,16 +8840,16 @@
     </row>
     <row r="298" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
-        <v>317507</v>
+        <v>869838</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>610</v>
+        <v>547</v>
       </c>
       <c r="E298" s="3" t="s">
         <v>830</v>
@@ -8669,33 +8857,33 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
-        <v>430531</v>
+        <v>317771</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>274</v>
+        <v>25</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>611</v>
+        <v>709</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
-        <v>506116</v>
+        <v>110556</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>275</v>
+        <v>96</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>612</v>
+        <v>433</v>
       </c>
       <c r="E300" s="3" t="s">
         <v>830</v>
@@ -8703,84 +8891,84 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
-        <v>826715</v>
+        <v>14114</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>613</v>
+        <v>398</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
-        <v>662098</v>
+        <v>588480</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>277</v>
+        <v>378</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>614</v>
+        <v>416</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
-        <v>15496</v>
+        <v>467459</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>615</v>
+        <v>548</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
-        <v>171058</v>
+        <v>73712</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
-        <v>14954</v>
+        <v>14392</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>617</v>
+        <v>535</v>
       </c>
       <c r="E305" s="3" t="s">
         <v>830</v>
@@ -8788,67 +8976,67 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
-        <v>143618</v>
+        <v>13859</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>618</v>
+        <v>400</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
-        <v>13592</v>
+        <v>139068</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>619</v>
+        <v>725</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
-        <v>481101</v>
+        <v>609331</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>620</v>
+        <v>759</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
-        <v>583404</v>
+        <v>112305</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>284</v>
+        <v>127</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>621</v>
+        <v>464</v>
       </c>
       <c r="E309" s="3" t="s">
         <v>830</v>
@@ -8856,33 +9044,33 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
-        <v>583405</v>
+        <v>430356</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>622</v>
+        <v>579</v>
       </c>
       <c r="E310" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
-        <v>583406</v>
+        <v>816561</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>623</v>
+        <v>470</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>830</v>
@@ -8890,16 +9078,16 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
-        <v>13817</v>
+        <v>856983</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>624</v>
+        <v>561</v>
       </c>
       <c r="E312" s="3" t="s">
         <v>830</v>
@@ -8907,169 +9095,169 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
-        <v>583407</v>
+        <v>799624</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>625</v>
+        <v>397</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
-        <v>14431</v>
+        <v>505751</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>626</v>
+        <v>414</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
-        <v>550989</v>
+        <v>761484</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>627</v>
+        <v>410</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
-        <v>792942</v>
+        <v>587450</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>628</v>
+        <v>557</v>
       </c>
       <c r="E316" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
-        <v>84776</v>
+        <v>311599</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>629</v>
+        <v>585</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
+        <v>68667</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A319" s="3">
         <v>254763</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B319" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C318" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D318" s="3" t="s">
+      <c r="C319" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D319" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E318" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" s="3">
-        <v>778109</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>631</v>
-      </c>
       <c r="E319" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
-        <v>14060</v>
+        <v>480973</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>295</v>
+        <v>175</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>632</v>
+        <v>512</v>
       </c>
       <c r="E320" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
-        <v>836252</v>
+        <v>13460</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>633</v>
+        <v>679</v>
       </c>
       <c r="E321" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
-        <v>605681</v>
+        <v>13729</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>297</v>
+        <v>148</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>634</v>
+        <v>485</v>
       </c>
       <c r="E322" s="3" t="s">
         <v>830</v>
@@ -9077,152 +9265,152 @@
     </row>
     <row r="323" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
-        <v>497641</v>
+        <v>804905</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>635</v>
+        <v>552</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
-        <v>541748</v>
+        <v>821434</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>636</v>
+        <v>576</v>
       </c>
       <c r="E324" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
-        <v>434303</v>
+        <v>836262</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>637</v>
+        <v>726</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
-        <v>919566</v>
+        <v>109850</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="E326" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
-        <v>12969</v>
+        <v>286359</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>302</v>
+        <v>216</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>639</v>
+        <v>553</v>
       </c>
       <c r="E327" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
-        <v>702831</v>
+        <v>13808</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
-        <v>89635</v>
+        <v>13750</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>304</v>
+        <v>18</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>641</v>
+        <v>702</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
-        <v>13808</v>
+        <v>76380</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>305</v>
+        <v>14</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>642</v>
+        <v>698</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
-        <v>583416</v>
+        <v>636603</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>306</v>
+        <v>116</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>643</v>
+        <v>453</v>
       </c>
       <c r="E331" s="3" t="s">
         <v>830</v>
@@ -9230,118 +9418,116 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
-        <v>109846</v>
+        <v>14014</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>644</v>
+        <v>720</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
-        <v>109848</v>
+        <v>315512</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>308</v>
+        <v>59</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>645</v>
+        <v>743</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
-        <v>903677</v>
+        <v>126774</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>309</v>
+        <v>46</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>646</v>
+        <v>730</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
-        <v>126666</v>
+        <v>16169</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>310</v>
+        <v>816</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>647</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="D335" s="3"/>
       <c r="E335" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
-        <v>109855</v>
+        <v>70033</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>648</v>
+        <v>708</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
-        <v>699543</v>
+        <v>772122</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>649</v>
+        <v>765</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
-        <v>579785</v>
+        <v>840462</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="E338" s="3" t="s">
         <v>830</v>
@@ -9349,16 +9535,16 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
-        <v>109850</v>
+        <v>744907</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>314</v>
+        <v>155</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>651</v>
+        <v>492</v>
       </c>
       <c r="E339" s="3" t="s">
         <v>830</v>
@@ -9366,16 +9552,16 @@
     </row>
     <row r="340" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
-        <v>15703</v>
+        <v>583406</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>652</v>
+        <v>623</v>
       </c>
       <c r="E340" s="3" t="s">
         <v>830</v>
@@ -9383,50 +9569,50 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
-        <v>777770</v>
+        <v>14624</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>316</v>
+        <v>247</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>653</v>
+        <v>584</v>
       </c>
       <c r="E341" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
-        <v>14055</v>
+        <v>138990</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>317</v>
+        <v>89</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>654</v>
+        <v>773</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
-        <v>919763</v>
+        <v>564063</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>655</v>
+        <v>595</v>
       </c>
       <c r="E343" s="3" t="s">
         <v>830</v>
@@ -9434,169 +9620,169 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="3">
-        <v>79397</v>
+        <v>172406</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>319</v>
+        <v>100</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>656</v>
+        <v>437</v>
       </c>
       <c r="E344" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
-        <v>731273</v>
+        <v>793147</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>657</v>
+        <v>558</v>
       </c>
       <c r="E345" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A346" s="3">
-        <v>725920</v>
+        <v>801686</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="E346" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
-        <v>840461</v>
+        <v>637154</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>659</v>
+        <v>592</v>
       </c>
       <c r="E347" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
-        <v>73725</v>
+        <v>748347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>660</v>
+        <v>569</v>
       </c>
       <c r="E348" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
-        <v>840462</v>
+        <v>430531</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>661</v>
+        <v>611</v>
       </c>
       <c r="E349" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
-        <v>797656</v>
+        <v>139071</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>325</v>
+        <v>70</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>662</v>
+        <v>754</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
-        <v>809150</v>
+        <v>333718</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>326</v>
+        <v>93</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>663</v>
+        <v>430</v>
       </c>
       <c r="E351" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
-        <v>801686</v>
+        <v>317040</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>327</v>
+        <v>3</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>664</v>
+        <v>687</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
-        <v>479072</v>
+        <v>905761</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>328</v>
+        <v>203</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>665</v>
+        <v>540</v>
       </c>
       <c r="E353" s="3" t="s">
         <v>830</v>
@@ -9604,67 +9790,67 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
-        <v>649782</v>
+        <v>317032</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>329</v>
+        <v>29</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>666</v>
+        <v>713</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
-        <v>109052</v>
+        <v>139015</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>330</v>
+        <v>11</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
-        <v>14313</v>
+        <v>213903</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>668</v>
+        <v>388</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
-        <v>13062</v>
+        <v>583484</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>332</v>
+        <v>178</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>669</v>
+        <v>515</v>
       </c>
       <c r="E357" s="3" t="s">
         <v>830</v>
@@ -9672,33 +9858,33 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
-        <v>777515</v>
+        <v>70472</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>333</v>
+        <v>68</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>670</v>
+        <v>752</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
-        <v>457112</v>
+        <v>583405</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>671</v>
+        <v>622</v>
       </c>
       <c r="E359" s="3" t="s">
         <v>830</v>
@@ -9706,50 +9892,50 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
-        <v>459625</v>
+        <v>13953</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>672</v>
+        <v>389</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
-        <v>65883</v>
+        <v>139034</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>336</v>
+        <v>58</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>673</v>
+        <v>742</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
-        <v>441136</v>
+        <v>583437</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>674</v>
+        <v>599</v>
       </c>
       <c r="E362" s="3" t="s">
         <v>830</v>
@@ -9757,67 +9943,67 @@
     </row>
     <row r="363" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
-        <v>633382</v>
+        <v>697682</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>338</v>
+        <v>196</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>675</v>
+        <v>533</v>
       </c>
       <c r="E363" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
-        <v>675784</v>
+        <v>419282</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>339</v>
+        <v>180</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>676</v>
+        <v>517</v>
       </c>
       <c r="E364" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
-        <v>226145</v>
+        <v>806040</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>340</v>
+        <v>94</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>677</v>
+        <v>431</v>
       </c>
       <c r="E365" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
-        <v>919347</v>
+        <v>564061</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>341</v>
+        <v>259</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>678</v>
+        <v>596</v>
       </c>
       <c r="E366" s="3" t="s">
         <v>830</v>
@@ -9825,16 +10011,16 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
-        <v>13460</v>
+        <v>842607</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>342</v>
+        <v>185</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>679</v>
+        <v>522</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>830</v>
@@ -9842,271 +10028,271 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
-        <v>441495</v>
+        <v>538205</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>426</v>
+        <v>686</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>680</v>
+        <v>763</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
-        <v>899255</v>
+        <v>112307</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>681</v>
+        <v>387</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
-        <v>727551</v>
+        <v>549597</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>345</v>
+        <v>128</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>682</v>
+        <v>465</v>
       </c>
       <c r="E370" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
-        <v>591260</v>
+        <v>279616</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>683</v>
+        <v>404</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
-        <v>777000</v>
+        <v>641736</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>347</v>
+        <v>95</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>684</v>
+        <v>432</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
-        <v>160933</v>
+        <v>86999</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>348</v>
+        <v>227</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>426</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>685</v>
+        <v>564</v>
       </c>
       <c r="E373" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A374" s="3">
-        <v>112307</v>
+        <v>14169</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>349</v>
+        <v>147</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>387</v>
+        <v>484</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
-        <v>213903</v>
+        <v>13550</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>388</v>
+        <v>570</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
-        <v>13953</v>
+        <v>525098</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>351</v>
+        <v>135</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
-        <v>316878</v>
+        <v>304596</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>352</v>
+        <v>130</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
-        <v>476532</v>
+        <v>892451</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>353</v>
+        <v>55</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>391</v>
+        <v>739</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
-        <v>449472</v>
+        <v>605681</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>392</v>
+        <v>634</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
-        <v>915039</v>
+        <v>84773</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>355</v>
+        <v>7</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>393</v>
+        <v>691</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
-        <v>145200</v>
+        <v>78414</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>356</v>
+        <v>12</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>394</v>
+        <v>696</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A382" s="3">
-        <v>13356</v>
+        <v>13377</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>357</v>
+        <v>63</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>395</v>
+        <v>747</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
-        <v>14957</v>
+        <v>323452</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>425</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E383" s="3" t="s">
         <v>831</v>
@@ -10114,16 +10300,16 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="3">
-        <v>799624</v>
+        <v>915039</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>425</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E384" s="3" t="s">
         <v>831</v>
@@ -10131,16 +10317,16 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
-        <v>14114</v>
+        <v>430360</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>425</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="E385" s="3" t="s">
         <v>831</v>
@@ -10148,16 +10334,16 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
-        <v>15715</v>
+        <v>63868</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>425</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="E386" s="3" t="s">
         <v>831</v>
@@ -10165,430 +10351,909 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
-        <v>13859</v>
+        <v>476532</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>425</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
-        <v>15215</v>
+        <v>777000</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>401</v>
+        <v>684</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
-        <v>323452</v>
+        <v>15160</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>364</v>
+        <v>54</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>402</v>
+        <v>738</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
-        <v>715464</v>
+        <v>14130</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>365</v>
+        <v>157</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>403</v>
+        <v>494</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
-        <v>279616</v>
+        <v>836586</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>366</v>
+        <v>108</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
-        <v>14036</v>
+        <v>585034</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>367</v>
+        <v>149</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A393" s="3">
-        <v>312165</v>
+        <v>150014</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>368</v>
+        <v>16</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>406</v>
+        <v>700</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
-        <v>461896</v>
+        <v>225408</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>369</v>
+        <v>163</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>407</v>
+        <v>500</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
-        <v>68632</v>
+        <v>65185</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>370</v>
+        <v>181</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>408</v>
+        <v>518</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
-        <v>394026</v>
+        <v>69986</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>371</v>
+        <v>83</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>409</v>
+        <v>767</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
-        <v>761484</v>
+        <v>15347</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>372</v>
+        <v>39</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>410</v>
+        <v>723</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
-        <v>87572</v>
+        <v>14233</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>373</v>
+        <v>156</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>411</v>
+        <v>493</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
-        <v>826428</v>
+        <v>840461</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>412</v>
+        <v>659</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
-        <v>637667</v>
+        <v>430358</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>413</v>
+        <v>580</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A401" s="3">
-        <v>505751</v>
+        <v>70026</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>376</v>
+        <v>64</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>414</v>
+        <v>748</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
-        <v>14010</v>
+        <v>797656</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>415</v>
+        <v>662</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
-        <v>588480</v>
+        <v>112174</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>378</v>
+        <v>173</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>416</v>
+        <v>510</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
-        <v>430360</v>
+        <v>171058</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>417</v>
+        <v>616</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A405" s="3">
-        <v>79346</v>
+        <v>559046</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>380</v>
+        <v>67</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>418</v>
+        <v>751</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="3">
-        <v>254563</v>
+        <v>662098</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>381</v>
+        <v>277</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>419</v>
+        <v>614</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="3">
-        <v>14708</v>
+        <v>109855</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>420</v>
+        <v>648</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
-        <v>63868</v>
+        <v>109848</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>383</v>
+        <v>308</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>421</v>
+        <v>645</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
-        <v>225392</v>
+        <v>13549</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>384</v>
+        <v>49</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>422</v>
+        <v>733</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
-        <v>699643</v>
+        <v>15528</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>385</v>
+        <v>21</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>423</v>
+        <v>705</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
-        <v>13152</v>
+        <v>12956</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>386</v>
+        <v>8</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>424</v>
+        <v>692</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A412" s="3">
+        <v>866206</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="3">
+        <v>870062</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="3">
+        <v>860263</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A415" s="3">
+        <v>873808</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="3">
+        <v>883852</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A417" s="3">
+        <v>909539</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="3">
+        <v>899525</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="3">
+        <v>894075</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="3">
+        <v>897081</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="3">
+        <v>914470</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="3">
+        <v>917513</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="3">
+        <v>908136</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="3">
+        <v>919139</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="3">
+        <v>920598</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="3">
+        <v>912173</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="3">
+        <v>917518</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="3">
+        <v>906471</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A429" s="3">
+        <v>911481</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="3">
+        <v>903672</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="3">
+        <v>904556</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="3">
+        <v>910207</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="3">
+        <v>890966</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="3">
+        <v>901913</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="3">
+        <v>892292</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="3">
+        <v>916482</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="3">
+        <v>919126</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="3">
+        <v>915248</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="3">
+        <v>919120</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>890</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E411">
+    <sortCondition ref="B2:B411"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Daisy-xls/ResearchPages/_ContentIDs.xlsx
+++ b/Daisy-xls/ResearchPages/_ContentIDs.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="13740" yWindow="705" windowWidth="9705" windowHeight="7590"/>
   </bookViews>
   <sheets>
-    <sheet name="Content IDs" sheetId="4" r:id="rId1"/>
+    <sheet name="Spanish Content IDs" sheetId="5" r:id="rId1"/>
+    <sheet name="English Content IDs" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="1342">
   <si>
     <t>Content ID</t>
   </si>
@@ -3228,15 +3229,1075 @@
   <si>
     <t>Innovative Program Aims to Improve Support for Cancer Family Caregivers[#8097]</t>
   </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/leucemia</t>
+  </si>
+  <si>
+    <t>Instantánea de la leucemia[#1210]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/cabeza-y-cuello</t>
+  </si>
+  <si>
+    <t>Instantánea de los cánceres de cabeza y cuello[#2503]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/cerebro</t>
+  </si>
+  <si>
+    <t>Instantánea de los cánceres de cerebro y del sistema nervioso central[#3978]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/higado-y-vias-biliares</t>
+  </si>
+  <si>
+    <t>Instantánea de los cánceres de hígado[#8778]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/adolescentes-y-adultos-jovenes</t>
+  </si>
+  <si>
+    <t>Instantánea de los cánceres en adolescentes y en adultos jóvenes[#5854]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/nanotecnologia</t>
+  </si>
+  <si>
+    <t>Instantánea de nanotecnología [#7062]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/colorrectal</t>
+  </si>
+  <si>
+    <t>Instantánea del cáncer colorrectal[#3852]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/cuello-uterino</t>
+  </si>
+  <si>
+    <t>Instantánea del cáncer de cuello uterino[#1953]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/endometrio</t>
+  </si>
+  <si>
+    <t>Instantánea del cáncer de endometrio[#3947]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/esofago</t>
+  </si>
+  <si>
+    <t>Instantánea del cáncer de esófago[#5023]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/estomago</t>
+  </si>
+  <si>
+    <t>Instantánea del cáncer de estómago[#5845]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/ovario</t>
+  </si>
+  <si>
+    <t>Instantánea del cáncer de ovario[#2548]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/pancreas</t>
+  </si>
+  <si>
+    <t>Instantánea del cáncer de páncreas[#5488]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/prostata</t>
+  </si>
+  <si>
+    <t>Instantánea del cáncer de próstata[#3921]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/pulmon</t>
+  </si>
+  <si>
+    <t>Instantánea del cáncer de pulmón[#8046]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/rinon</t>
+  </si>
+  <si>
+    <t>Instantánea del cáncer de riñón[#5217]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/seno</t>
+  </si>
+  <si>
+    <t>Instantánea del cáncer de seno (mama)[#7975]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/tiroides</t>
+  </si>
+  <si>
+    <t>Instantánea del cáncer de tiroides[#3012]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/vejiga</t>
+  </si>
+  <si>
+    <t>Instantánea del cáncer de vejiga[#3664]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/infantil</t>
+  </si>
+  <si>
+    <t>Instantánea del cáncer infantil[#8813]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/linfoma</t>
+  </si>
+  <si>
+    <t>Instantánea del linfoma[#1483]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/melanoma</t>
+  </si>
+  <si>
+    <t>Instantánea del melanoma[#9856]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/mieloma</t>
+  </si>
+  <si>
+    <t>Instantánea del mieloma[#2476]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/sarcoma-de-kaposi</t>
+  </si>
+  <si>
+    <t>Instantánea del sarcoma de Kaposi[#8259]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/sarcoma</t>
+  </si>
+  <si>
+    <t>Instantánea del sarcoma[#5781]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/</t>
+  </si>
+  <si>
+    <t>Instantáneas de cáncer: Tipos específicos de cáncer y otros temas[#8226]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/lanzamiento-ALCHEMIST-preguntas-respuestas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ALCHEMIST </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Estudios sobre la Secuenciación e Identificación de Marcadores para el Mejoramiento de la Terapia Adjuvante para el Cáncer de Pulmón): Preguntas y respuestas[#1435]</t>
+    </r>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/estudioRTOG9802</t>
+  </si>
+  <si>
+    <t>Añadir quimioterapia después de la radioterapia mejora la supervivencia de adultos con un tipo de tumor cerebral de crecimiento lento[#4209]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/xmrv_qaSpanish</t>
+  </si>
+  <si>
+    <t>Asociación entre el virus XMRV y enfermedades humanas: preguntas y respuestas[#4664]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/CancerCenterPuertoRicoSpanish</t>
+  </si>
+  <si>
+    <t>Comienza la construcción de instalación patrocinada por el NCI en Puerto Rico para realizar estudios clínicos sobre el cáncer [#7479]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/GlobalHealthNewsNoteSept21Spanish</t>
+  </si>
+  <si>
+    <t>Control del cáncer y salud mundial: noticia del Instituto Nacional del Cáncer (NCI)[#4930]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/declaracion-SELECT</t>
+  </si>
+  <si>
+    <t>Declaración de la Secretaria del Departamento de Salud y Servicios Humanos de los Estados Unidos, Donna E. Shalala, acerca del Estudio de Tamoxifeno y Raloxifeno[#1189]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/declaracion-vacuna-VPH</t>
+  </si>
+  <si>
+    <t>Declaración del Instituto Nacional del Cáncer sobre la aprobación de la vacuna de VPH por la FDA[#8760]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/BreastScreen2009Spanish</t>
+  </si>
+  <si>
+    <t>Declaración del Instituto Nacional del Cáncer sobre los exámenes selectivos de detección de cáncer de seno[#5045]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/declaracion-sobre-red-NCTN</t>
+  </si>
+  <si>
+    <t>Declaración sobre los cambios que tendrán lugar próximamente en los programas de estudios clínicos del NCI[#5235]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/estudio-clinico-STAR-resultados</t>
+  </si>
+  <si>
+    <t>Difusión de resultados iniciales del Estudio del Tamoxifeno y del Raloxifeno (STAR): el fármaco para el tratamiento de la osteoporosis, raloxifeno, es tan efectivo como el Tamoxifeno en la prevención de cáncer de seno i[#4606]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/BreastIncidenceDrop-Spanish</t>
+  </si>
+  <si>
+    <t>Disminución de las tasas de cáncer de seno relacionada con la reducción del uso de terapias de reemplazo hormonal[#2088]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/Asco-estudioNCI8348-cancer-de-ovario-recidivante</t>
+  </si>
+  <si>
+    <t>El análisis de un estudio clínico indica que una combinación de fármacos puede ser de gran eficacia contra el cáncer de ovario recidivante[#1451]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/subvenciones-CGH</t>
+  </si>
+  <si>
+    <t>El Centro para la Salud Mundial del NCI anuncia las primeras becas de investigación para apoyar las tecnologías portátiles[#7382]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/TobaccoPregnancySpanish</t>
+  </si>
+  <si>
+    <t>El consumo de tabaco y la exposición al humo de tabaco en el ambiente durante el embarazo pueden poner en peligro la salud de mujeres y niños en países en desarrollo[#9632]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/estudio-clinico-STAR-resultados-respuestas</t>
+  </si>
+  <si>
+    <t>El Estudio del Tamoxifeno y del Raloxifeno (STAR): preguntas y respuestas[#9953]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ReportNation2007SpanishRelease</t>
+  </si>
+  <si>
+    <t>El Informe Anual a la Nación indica que la tasa de mortalidad por cáncer está bajando el doble</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/informe-anual-2006</t>
+  </si>
+  <si>
+    <t>El Informe Anual a la Nación indica que las tasas de mortalidad por cáncer continúan declinando. Se observan tasas menores de cáncer en las poblaciones latinas de los Estados Unidos.[#3571]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/informe-anual-2005</t>
+  </si>
+  <si>
+    <t>El Informe Anual a la Nación indica que las tasas de mortalidad por cáncer continúan declinando: los avances en el tratamiento del cáncer varían según el tipo de cáncer[#8633]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/informe-anual-2004</t>
+  </si>
+  <si>
+    <t>El Informe Anual a la Nación Muestra que la Incidencia de Cáncer y las Tasas de Mortalidad están Declinado: Las Tasas de Supervivencia Reflejan Progreso Significativo[#9135]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/reuniones-libres-humo-tabaco</t>
+  </si>
+  <si>
+    <t>El Instituto Nacional del Cáncer (NCI) anuncia su nueva política de reuniones libres de humo de tabaco para abordar peligros graves de salud pública[#1424]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/PeruLOI</t>
+  </si>
+  <si>
+    <t>El Instituto Nacional del Cáncer de EE. UU. y la República del Perú firman una Declaración de Intención[#8721]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/estudio-deteccion-pulmon</t>
+  </si>
+  <si>
+    <t>El Instituto Nacional del Cáncer inicia Estudio de Detección en Pulmón[#8566]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/lanzamiento</t>
+  </si>
+  <si>
+    <t>El Instituto Nacional del Cáncer lanza el sitio en la Internet[#4011]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/nuevo-sitio</t>
+  </si>
+  <si>
+    <t>El Instituto Nacional del Cáncer lanza su nuevo sitio en español[#3307]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/atlas</t>
+  </si>
+  <si>
+    <t>El Instituto Nacional del Cáncer publica nuevo atlas de mortalidad por cáncer[#4300]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/estudioMPACT</t>
+  </si>
+  <si>
+    <t>El NCI inicia un estudio para evaluar la utilidad de la secuenciación genética para mejorar los resultados en los pacientes[#9669]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/survivorshippressrelease2011spa</t>
+  </si>
+  <si>
+    <t>El número de supervivientes de cáncer en Estados Unidos asciende a aproximadamente 12 millones[#5195]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ArgentinaBrasilMexicoUruguayUS</t>
+  </si>
+  <si>
+    <t>Estados Unidos y cuatro países de América Latina se unen para combatir el cáncer[#8116]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/TAILORxQandASpanish</t>
+  </si>
+  <si>
+    <t>Estudio de Asignación de Opciones Individualizadas de Tratamiento (TAILORx): preguntas y respuestas[#5011]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/PLCOscreeningQandASpanish</t>
+  </si>
+  <si>
+    <t>Estudio de Exámenes de Detección de Cáncer de Próstata, Pulmón, Colorrectal y Ovarios (PLCO): preguntas y respuestas[#7086]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/PLCOprostateResultsSpanish</t>
+  </si>
+  <si>
+    <t>Estudio de exámenes selectivos de detección de cáncer en los Estados Unidos indica que las pruebas anuales para detectar cáncer de próstata no tienen un beneficio en la mortalidad por esta enfermedad[#8874]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/PLCOprostateResultsQandASpanish</t>
+  </si>
+  <si>
+    <t>Estudio de exámenes selectivos de detección de cáncer en los Estados Unidos indica que las pruebas anuales para detectar cáncer de próstata no tienen un beneficio en la mortalidad por esta enfermedad[#9139]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/CoffeeProtectiveDCEGSpanish</t>
+  </si>
+  <si>
+    <t>Estudio de los Institutos Nacionales de la Salud indica que quienes toman café tienen un riesgo menor de muerte [#6727]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/predictor-riesgo-de-vph</t>
+  </si>
+  <si>
+    <t>Estudio de los NIH revela que un resultado negativo de la prueba del VPH es un mejor predictor de un riesgo bajo de cáncer de cuello uterino que una prueba de Pap negativa[#6680]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/CTpediatricSpanish</t>
+  </si>
+  <si>
+    <t>Estudio de los NIH señala una relación de la tomografía computarizada (TC) en la infancia con leucemia y con cáncer de cerebro más tarde[#5163]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/PhysicalActivityLongevitySpanish</t>
+  </si>
+  <si>
+    <t>Estudio de NIH indica que la actividad física en tiempo libre alarga la vida tanto como 4,5 años[#1011]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ALTTOSpanishRelease</t>
+  </si>
+  <si>
+    <t>Estudio de terapias dirigidas para el cáncer de seno estableció un modelo de estudios clínicos a nivel mundial[#2556]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/obesidad-claseIII</t>
+  </si>
+  <si>
+    <t>Estudio del NCI revela que la obesidad extrema puede acortar la esperanza de vida hasta en 14 años[#2576]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/SELECTQandA</t>
+  </si>
+  <si>
+    <t>Estudio del Selenio y la Vitamina E para Prevenir el Cáncer (SELECT): preguntas y respuestas[#9902]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/SELECTJamaQandAresults</t>
+  </si>
+  <si>
+    <t>Estudio del Selenio y la Vitamina E para Prevenir el Cáncer (SELECT)[#3141]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/NLSTprimaryNEJMSpanish</t>
+  </si>
+  <si>
+    <t>Estudio financiado por los NIH indica que hay una reducción de 20% en la mortalidad por cáncer de pulmón con tomografía computarizada de dosis baja en comparación con rayos X de pecho[#2008]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/E3805</t>
+  </si>
+  <si>
+    <t>Estudio financiado por los NIH indica un aumento de la supervivencia en hombres con cáncer de próstata metastásico que reciben quimioterapia desde el inicio de la terapia hormonal[#6885]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/SELECT2011Spanish</t>
+  </si>
+  <si>
+    <t>Estudio financiado por NIH muestra un riesgo mayor de cáncer de próstata debido a complementos de vitamina E[#4404]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/nlstQandASpanish</t>
+  </si>
+  <si>
+    <t>Estudio Nacional de Exámenes de Pulmón: preguntas y respuestas [#6313]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/VirtualColonoscopyRelease</t>
+  </si>
+  <si>
+    <t>Extenso estudio realizado en muchos centros demuestra que hay una precisión comparable de la colonoscopia virtual con la colonoscopia convencional[#8953]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ALTTOSpanishQandA</t>
+  </si>
+  <si>
+    <t>Fármacos dirigidos activos contra el cáncer de seno HER-2 positivo: preguntas y respuestas[#3295]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/SmokingBladderRiskSpanish</t>
+  </si>
+  <si>
+    <t>Fumar cigarrillos está relacionado con la mitad de los casos de cáncer de vejiga en mujeres; estudio de los NIH confirma que el riesgo de cáncer de vejiga por fumar es mayor de lo que se calculó anteriormente[#3716]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/GISTestudio</t>
+  </si>
+  <si>
+    <t>Gleevec disminuye la recidiva del cáncer en pacientes con tumor estromal gastrointestinal primario[#4254]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/Varmus12deJulio</t>
+  </si>
+  <si>
+    <t>Harold Varmus investido bajo juramento como 14.º director del Instituto Nacional del Cáncer[#6005]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/nuevo-sitio-web</t>
+  </si>
+  <si>
+    <t>Información sobre el cáncer para hispanos y latinos[#8481]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ReportNation2011SpanishRelease</t>
+  </si>
+  <si>
+    <t>Informe a la Nación encuentra bajas continuas en muchos índices de cáncer;</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ReportNationRelease2012Spanish</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Informe a la nación indica que continúa la disminución de las tasas de mortalidad por cáncer que empezó a principios de los noventa; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Una sección especial destaca los cánceres asociados al exceso de peso y a la falta de actividad física adecuada[#6813]</t>
+    </r>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/informeNacion2013</t>
+  </si>
+  <si>
+    <t>Informe a la Nación indica que el índice de mortalidad por cáncer sigue bajando; la sección especial destaca las tendencias de los cánceres asociados con el VPH y los grados de cobertura de vacunación contra el VPH. [#8757]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ReportNation2009SpanishRelease</t>
+  </si>
+  <si>
+    <t>Informe Anual a la Nación indica que los índices generales de cáncer siguen disminuyendo; su sección especial destaca las tendencias actuales y pronósticos del cáncer colorrectal[#2364]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ReportNation2008SpanishRelease</t>
+  </si>
+  <si>
+    <t>Informe Anual a la Nación indica una reducción en los índices de incidencia y mortalidad por cáncer; una sección especial revela amplias variaciones en las tendencias del cáncer de pulmón en los est[#6014]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/informe-annual-2005-respuestas</t>
+  </si>
+  <si>
+    <t>Informe Anual a la Nación sobre el Estado del Cáncer 1975-2002 con una sección especial sobre las tendencias de tratamiento: preguntas y respuestas[#1878]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ReportNation2007SpanishQandA</t>
+  </si>
+  <si>
+    <t>Informe Anual a la Nación sobre el Estado del Cáncer de 1975 a 2004 enfocado especialmente al estado del cáncer entre los indígenas americanos y los nativos de Alaska: preguntas y respuestas[#4612]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ReportNation2008SpanishQandA</t>
+  </si>
+  <si>
+    <t>Informe Anual a la Nación sobre el Estado del Cáncer de 1975 a 2005, con una sección especial que describe las tendencias del cáncer de pulmón y el consumo y control del tabaco: preguntas y respuestas[#6002]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ReportNation2009SpanishQandA</t>
+  </si>
+  <si>
+    <t>Informe Anual a la Nación sobre el estado del cáncer de 1975 al 2006, con una sección especial sobre las tendencias del cáncer colorrectal: preguntas y respuestas[#5219]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ReportNation2012SpanishQandA</t>
+  </si>
+  <si>
+    <t>Informe Anual a la Nación sobre el Estado del Cáncer, 1975-2008, con información sobre los cánceres asociados al sobrepeso y a la falta de actividad física adecuada: Preguntas y respuestas[#6568]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ReportNation2011QandASpanish</t>
+  </si>
+  <si>
+    <t>Informe Anual a la Nación sobre el Estado del Cáncer, de 1975 a 2007, con una sección especial sobre las tendencias del cáncer de cerebro: preguntas y respuestas [#1866]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/informeNacion2013QA</t>
+  </si>
+  <si>
+    <t>Informe Anual a la Nación sobre el Estado del Cáncer, de 1975 a 2009, con una sección especial del gravamen y tendencias de los cánceres asociados con el VPH y el grado de alcance de la vacunación contra el VPH: preguntas y respuestas[#5157]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/informeNacionDiciembre2013QA</t>
+  </si>
+  <si>
+    <t>Informe Anual a la Nación sobre el Estado del Cáncer, de 1975 a 2010, con una sección especial sobre la prevalencia de comorbilidad y su efecto en la supervivencia de personas con cáncer de pulmón, seno, próstata o colorrectal: preguntas y respues[#2911]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/respuestasexcepcionales-preguntas-respuestas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Iniciativa de Respuestas Excepcionales: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Preguntas y respuestas[#5231]</t>
+    </r>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/PediatricSarcoma-Spanish</t>
+  </si>
+  <si>
+    <t>Investigadores encuentran que el sarcoma en niños aumenta el riesgo de coágulos en la sangre[#8979]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/SELECTresults2008spanish</t>
+  </si>
+  <si>
+    <t>La revisión del estudio de prevención de cáncer de próstata indica no haber beneficio del uso de suplementos de selenio y de vitamina E[#7687]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/estudio-clinico-TAILORx</t>
+  </si>
+  <si>
+    <t>Lanzamiento del estudio de tratamiento personalizado para el cáncer de seno[#5784]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ChileUSA</t>
+  </si>
+  <si>
+    <t>Los Estados Unidos y la República de Chile se unen para combatir el cáncer[#7237]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/polipos-dieta</t>
+  </si>
+  <si>
+    <t>Los estudios de las dietas alimenticias bajas en grasa, altas en fibra y ricas en frutas y vegetales no revelan efecto alguno en la formación de nuevos pólipos colorrectales en personas con antecedentes de pólipos precanceroso[#4876]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/informeNacionDiciembre2013</t>
+  </si>
+  <si>
+    <t>Los índices de mortalidad por cáncer de pulmón siguen bajando y contribuyen a reducción de índices generales de muertes por cáncer; Informe Anual a la Nación tiene una sección especial de los efectos de otras enfermedades en la supervivencia de pa[#1364]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/lanzamiento-ALCHEMIST</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Los NIH anuncian el lanzamiento de 3 estudios integrados de medicina de precisión; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALCHEMIST es para pacientes con ciertos tipos de cáncer de pulmón en estadio inicial[#6054]</t>
+    </r>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/informe-tabaco-sin-humo-NCI-y-CDC</t>
+  </si>
+  <si>
+    <t>Más de 300 millones de personas consumen tabaco sin humo en al menos 70 países[#8271]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/incrementar-acceso-minorias</t>
+  </si>
+  <si>
+    <t>NCI Anuncia Contribuciones para Incrementar Acceso de Minorías a Información sobre el Cáncer[#8786]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/Asco-estudios-del-NCI-canceres-en-mujeres</t>
+  </si>
+  <si>
+    <t>NCI en el congreso de ASCO: Breve reseña de los resultados de investigaciones sobre cánceres en mujeres[#7359]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/nci-responde-huracanes</t>
+  </si>
+  <si>
+    <t>NCI ofrece apoyo a quienes están necesitados después de los huracanes Katrina y Rita[#4678]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/nci-responde-huracanes-archivos</t>
+  </si>
+  <si>
+    <t>NCI ofrece apoyo a quienes están necesitados después del huracane Katrina[#6162]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/Asco-estudio-cancer-de-seno-sensible-a-hormonas</t>
+  </si>
+  <si>
+    <t>Nueva opción de tratamiento para mujeres jóvenes con cáncer de seno sensible a las hormonas[#4297]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/publicacion-siga-adelante</t>
+  </si>
+  <si>
+    <t>Nueva Publicacion Habla de las Necesidades de los Sobrevivientes de cancer Latinos y sus Familias[#6519]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/ColorectalDisparitiesSpanish</t>
+  </si>
+  <si>
+    <t>Nuevo estudio relaciona a los índices de utilización de servicios de atención médica más que a la biología con las desigualdades en salud por cáncer colorrectal[#2047]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/acceso-medico-cancer-seno</t>
+  </si>
+  <si>
+    <t>Persisten las diferencias de cáncer de seno en hispanas con el mismo acceso a la atención médica[#4535]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/TobaccoControlCISNETSpa</t>
+  </si>
+  <si>
+    <t>placeholder[#7273]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/estudio-clinico-STAR-respuestas</t>
+  </si>
+  <si>
+    <t>Preguntas y respuestas acerca del Estudio del Tamoxifeno y Raloxifeno (STAR)[#2659]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/informe-anual-2004-respuestas</t>
+  </si>
+  <si>
+    <t>Preguntas y respuestas: Informe Anual a la Nación sobre la Situación del Cáncer en el Período 1975-2001, con Especial Énfasis sobre la Supervivencia[#2563]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/redes-poblaciones-especiales-respuestas</t>
+  </si>
+  <si>
+    <t>Preguntas y respuestas: Redes de Poblaciones Especiales Para la Investigación y el Entrenamiento de Programas de Educación sobre el Cáncer[#5168]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/HLGCCN</t>
+  </si>
+  <si>
+    <t>Primera conferencia a nivel nacional para tratar asuntos genéticos importantes para la población hispana,latina[#9345]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/NLSTFastFactsSPA</t>
+  </si>
+  <si>
+    <t>Principales resultados del Estudio Nacional de Exámenes de pulmón (NLST): Síntesis[#9125]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/AMLdaunorubicinSpanish</t>
+  </si>
+  <si>
+    <t>Quimioterapia de alta dosis prolonga en forma significativa la supervivencia en pacientes con leucemia mieloide aguda[#4647]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/NLSTresultsspanish</t>
+  </si>
+  <si>
+    <t>Resultados de estudio para cáncer de pulmón indican beneficio en mortalidad con el uso de tomografía computarizada de baja dosis[#7171]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/VirtualColonoscopyQA</t>
+  </si>
+  <si>
+    <t>Resultados del Estudio Nacional de Colografía de Tomografía Computarizada: preguntas y respuestas[#2129]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/costcancer2020SPA</t>
+  </si>
+  <si>
+    <t>Se calcula que los costos del cáncer ascenderán por lo menos a $158.000 millones en 2020[#2601]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/AccelerateResearchSpanish</t>
+  </si>
+  <si>
+    <t>Se da a conocer el plan del Instituto Nacional del Cáncer para acelerar la investigación del cáncer[#1335]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/XMRVrecombinationSpan</t>
+  </si>
+  <si>
+    <t>Se descifra el origen del XMRV y descartan las afirmaciones de su papel en enfermedades en humanos[#5614]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/estudio-clinico-PCPT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se encuentra el primer medicamento para la prevención del cáncer de próstata, aunque no todos los hombres se benefician: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>El NCI anuncia los resultados del Estudio de Prevención del Cáncer de Próstata (P[#7579]</t>
+    </r>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/TobaccoControlCISNETSpanish</t>
+  </si>
+  <si>
+    <t>Se evitaron cerca de 800 000 muertes debido al descenso en tabaquismo [#7708]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/seno-etapa-avanzada</t>
+  </si>
+  <si>
+    <t>Se identifica una relación entre la falta de exámenes de detección y una gran parte de los casos de cáncer de seno en la etapa avanzada[#3260]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/estudio-clinico-SELECT</t>
+  </si>
+  <si>
+    <t>Se inagura estudio de prevención de cáncer de próstata[#8660]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/respuestas-excepcionales-adn</t>
+  </si>
+  <si>
+    <t>Se inicia estudio de los NIH sobre respuestas excepcionales al tratamiento del cáncer[#6583]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/estudio-LungMap</t>
+  </si>
+  <si>
+    <t>Se lanza Lung-MAP, el primer estudio de medicina de precisión de la Red Nacional de Estudios Clínicos[#1078]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/se-lanza-red-NCTN</t>
+  </si>
+  <si>
+    <t>Se lanza Red Nacional de Estudios Clínicos del NCI [#9234]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/estudio-clinico-NLST</t>
+  </si>
+  <si>
+    <t>Se necesitan 50 000 fumadores y exfumadores para el Estudio Nacional de Exámenes de Pulmón (NLST)[#6706]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/programa-NCORP</t>
+  </si>
+  <si>
+    <t>Se pone en marcha el Programa de Investigación Oncológica Comunitaria (NCORP) del NCI[#1032]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/estudio-clinico-STAR-inscribir</t>
+  </si>
+  <si>
+    <t>STAR inscribe 6.139 Mujeres en el primer año[#4159]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/Asco-estudioPOEMS-cancer-de-seno-fertilidad</t>
+  </si>
+  <si>
+    <t>Tratamiento ayuda a las mujeres jóvenes a preservar la fertilidad durante la quimioterapia para el cáncer de seno[#3156]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/HPVvaxDosingSpanish</t>
+  </si>
+  <si>
+    <t>Un estudio de los Institutos Nacionales de la Salud indica que dos dosis de vacuna contra los VPH pueden proteger tanto como el tratamiento completo [#1488]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/aspirina-reduccion-cancerdeovario</t>
+  </si>
+  <si>
+    <t>Un estudio de los NIH indica que el consumo regular de aspirina podría reducir el riesgo de cáncer de ovario [#2712]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/SpanishProstateRTOGtherapyNEJM</t>
+  </si>
+  <si>
+    <t>Un estudio financiado por los Institutos Nacionales de la Salud (NIH) muestra reducción en la mortalidad entre hombres con cáncer de próstata en grado intermedio: [#8062]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/PLCOScreeningSpanish</t>
+  </si>
+  <si>
+    <t>Un estudio indica que la sigmoidoscopia reduce los índices de cáncer colorrectal[#2335]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/comunicado-de-prensa-del-informe-anual</t>
+  </si>
+  <si>
+    <t>Un nuevo análisis de los subtipos de cáncer de seno podría llevar a una mejor estratificación del riesgo; Informe Anual a la Nación indica que la mortalidad y la incidencia de la mayoría de los cánceres continúan disminuyendo[#3417]</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/Uso-hormonas-respuestas</t>
+  </si>
+  <si>
+    <t>Uso de hormonas después de la menopausia: preguntas y respuestas[#5448]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/eficacia-de-vacunas-para-vph</t>
+  </si>
+  <si>
+    <t>A pesar del escepticismo inicial, las vacunas contra el VPH demuestran ser eficaces[#4710]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/capacitacion-de-personal-y-pacientes-sobre-cuidados-terminales</t>
+  </si>
+  <si>
+    <t>Capacitación del personal y de los pacientes en torno a los cuidados terminales[#1939]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/cuidados-paliativos-de-cancer-entrevista</t>
+  </si>
+  <si>
+    <t>Charla con el doctor Thomas Smith sobre el creciente papel de los cuidados paliativos en los pacientes con cáncer[#9686]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/alimentacion-y-cancer-entrevista</t>
+  </si>
+  <si>
+    <t>Charla con el doctor Walter Willett sobre la alimentación y el cáncer[#2110]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/gestores-de-pacientes-y-personal-de-enfermeria</t>
+  </si>
+  <si>
+    <t>Con la expansión y el crecimiento de los programas de gestión para pacientes, el personal de enfermería asume diversas funciones[#3100]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/ejercicio-para-pacientes-con-cancer-y-supervivientes</t>
+  </si>
+  <si>
+    <t>Directrices instan al ejercicio a pacientes con cáncer y supervivientes[#9300]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/ayuda-a-supervivientes-de-cancer-a-tener-peso-saludable</t>
+  </si>
+  <si>
+    <t>El equilibrio correcto: cómo ayudar a los supervivientes de cáncer a tener un peso saludable[#1156]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/busqueda-de-mejor-proceso-de-deteccion-del-cancer</t>
+  </si>
+  <si>
+    <t>En busca de un mejor proceso de detección del cáncer[#7947]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/posible-preservar-fertilidad-de-varones-supervivientes-de-cancer</t>
+  </si>
+  <si>
+    <t>Estudio indica que es posible preservar la fertilidad de muchos varones supervivientes de cáncer[#1734]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/hablar-sobre-cuidado-al-final-de-la-vida</t>
+  </si>
+  <si>
+    <t>Estudio muestra la importancia de las conversaciones tempranas sobre el cuidado en la etapa final de la vida[#4072]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/estudios-clinicos-ofrecen-via-de-tratamiento-en-adolescentes-adultos-jovenes</t>
+  </si>
+  <si>
+    <t>Estudios clínicos ofrecen una vía para el tratamiento del cáncer en adolescentes y adultos jóvenes[#1733]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/beneficios-perjuicios-psa</t>
+  </si>
+  <si>
+    <t>Infografía: beneficios y perjuicios de la prueba del PSA para la detección del cáncer de próstata[#4685]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/biologia-del-cancer-en-adolescentes-y-adultos-jovenes</t>
+  </si>
+  <si>
+    <t>Investigación de la biología del cáncer en adolescentes y adultos jóvenes[#9574]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/modelo-beneficios-examenes-deteccion</t>
+  </si>
+  <si>
+    <t>Investigadores simulan los beneficios reales de los exámenes de detección mediante el análisis de una inmensa cantidad de datos[#6771]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/uso-de-telefonos-celulares-entrevista</t>
+  </si>
+  <si>
+    <t>La doctora Martha Linet comenta sobre el uso de teléfonos celulares y el riesgo de cáncer[#3620]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/fda-aprueba-vacuna-terapeutica-contra-cancer</t>
+  </si>
+  <si>
+    <t>La FDA aprueba primera vacuna terapéutica contra el cáncer[#7851]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/adolescentes-adultos-jovenes-supervivientes-de-cancer-problemas-salud</t>
+  </si>
+  <si>
+    <t>Muchos adolescentes y adultos jóvenes supervivientes de cáncer tienen problemas crónicos de salud y conductas no saludables[#1945]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/neuropatia-periferica-inducida-por-quimioterapia</t>
+  </si>
+  <si>
+    <t>Neuropatía periférica inducida por quimioterapia[#4380]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/aspirina-y-reduccion-de-riesgo-cancer</t>
+  </si>
+  <si>
+    <t>No es tarea fácil determinar si la aspirina reduce el riesgo de cáncer[#6442]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/efectos-tardios-problemas-duraderos-en-jovenes-supervivientes-de-cancer</t>
+  </si>
+  <si>
+    <t>Para muchos jóvenes supervivientes de cáncer, los efectos tardíos representan problemas duraderos[#9913]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/supervivientes-jovenes-de-cancer-en-estudio-de-oncofertilidad</t>
+  </si>
+  <si>
+    <t>Para que otros se beneficien: jóvenes con cáncer y supervivientes participan en un estudio de oncofertilidad[#2600]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/preservacion-de-fertilidad-mientras-se-combate-el-cancer</t>
+  </si>
+  <si>
+    <t>Preservación de la fertilidad mientras se combate el cáncer[#7309]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/reduccion-de-exposicion-a-radiacion</t>
+  </si>
+  <si>
+    <t>Se busca reducir de forma drástica la exposición a la radiación en los exámenes por imágenes[#3825]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/caquexia-en-el-cancer</t>
+  </si>
+  <si>
+    <t>Se busca resolver el enigma de la caquexia en el cáncer[#3708]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/obesidad-y-riesgo-de-cancer</t>
+  </si>
+  <si>
+    <t>Se revelan mecanismos que asocian la obesidad al riesgo de cáncer[#1834]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/futuro-de-deteccion-del-cancer</t>
+  </si>
+  <si>
+    <t>Todo lo que brilla: un vistazo al futuro de los exámenes de detección del cáncer[#8530]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/programa-innovador-ayuda-personas-que-cuidan-pacientes-con-cancer</t>
+  </si>
+  <si>
+    <t>Un programa innovador busca ayudar a las personas que cuidan a pacientes con cáncer[#8097]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/auge-de-cirugia-robotica-para-cancer-de-prostata</t>
+  </si>
+  <si>
+    <t>Un vistazo al auge de la cirugía robótica para el cáncer de próstata[#8550]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/cancer-survivorship-plans-slow-to-take-hold</t>
+  </si>
+  <si>
+    <t>Una transición difícil: los planes para supervivientes de cáncer se afianzan con lentitud[#4188]</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/investigacion/nanoparticulas-dirigidas-se-prueban-en-pacientes-con-cancer</t>
+  </si>
+  <si>
+    <t>Uso de nanopartículas dirigidas se pone a prueba en pacientes con cáncer[#5778]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3597,7 +4658,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3727,72 +4788,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3832,6 +4927,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Normal 3" xfId="43"/>
+    <cellStyle name="Normal 4" xfId="44"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -4135,9 +5231,1857 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C166"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103.5703125" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>725780</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>725777</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>725751</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>725781</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>725774</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>725786</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>725754</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>725753</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>725775</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>725776</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>725792</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>725787</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>725788</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>725790</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>725782</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>725779</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>725752</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>725793</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>725750</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>725789</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>725783</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>725784</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>725785</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>725778</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>725791</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>13792</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>819158</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>701387</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>84125</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>727658</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>109765</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>14058</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>13087</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>14075</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>748773</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>15663</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>14382</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>777516</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>832776</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>13340</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>13151</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
+        <v>14338</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
+        <v>13941</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
+        <v>14417</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
+        <v>13284</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
+        <v>14504</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
+        <v>320936</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
+        <v>15465</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
+        <v>13051</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
+        <v>15017</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>13040</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
+        <v>698540</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
+        <v>107282</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
+        <v>14758</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
+        <v>15377</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
+        <v>306365</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
+        <v>13132</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
+        <v>15344</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
+        <v>301433</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
+        <v>805030</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
+        <v>315672</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
+        <v>459624</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
+        <v>14408</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
+        <v>801833</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
+        <v>65972</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>14593</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
+        <v>87533</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>675973</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
+        <v>112382</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
+        <v>15696</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="9">
+        <v>12937</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="9">
+        <v>15236</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="9">
+        <v>105086</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
+        <v>14393</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="9">
+        <v>13529</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="9">
+        <v>14771</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="9">
+        <v>69989</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="9">
+        <v>255236</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="9">
+        <v>480978</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="9">
+        <v>14464</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="9">
+        <v>13462</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="9">
+        <v>14350</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="9">
+        <v>13444</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="9">
+        <v>13366</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="9">
+        <v>15235</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="9">
+        <v>257207</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="9">
+        <v>69990</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="9">
+        <v>481136</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="9">
+        <v>680173</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="9">
+        <v>833832</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="9">
+        <v>15316</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="9">
+        <v>13772</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="9">
+        <v>13416</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="9">
+        <v>14585</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="9">
+        <v>13924</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="9">
+        <v>678462</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="9">
+        <v>819167</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="9">
+        <v>902471</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="9">
+        <v>13091</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="9">
+        <v>777243</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="9">
+        <v>14418</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="9">
+        <v>14133</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="9">
+        <v>777587</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="9">
+        <v>14924</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="9">
+        <v>14532</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="9">
+        <v>13503</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="9">
+        <v>253624</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="9">
+        <v>14669</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="9">
+        <v>13301</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="9">
+        <v>14735</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="9">
+        <v>14197</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="9">
+        <v>15220</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="9">
+        <v>14768</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="9">
+        <v>15482</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="9">
+        <v>15850</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="9">
+        <v>15649</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="9">
+        <v>14899</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="9">
+        <v>84124</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="9">
+        <v>13573</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="9">
+        <v>253781</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="9">
+        <v>15138</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="9">
+        <v>12905</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="9">
+        <v>833086</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="9">
+        <v>790467</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="9">
+        <v>727660</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="9">
+        <v>15417</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="9">
+        <v>810254</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="9">
+        <v>13157</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="9">
+        <v>777445</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="9">
+        <v>108047</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="9">
+        <v>702837</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="9">
+        <v>89636</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="9">
+        <v>304971</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="9">
+        <v>919762</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="9">
+        <v>14325</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="11">
+        <v>838078</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="11">
+        <v>840807</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="11">
+        <v>838597</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="11">
+        <v>826659</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="11">
+        <v>840804</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="11">
+        <v>840771</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="11">
+        <v>840738</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="11">
+        <v>838101</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="11">
+        <v>838598</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>840806</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="11">
+        <v>840869</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="11">
+        <v>826664</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="11">
+        <v>840848</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="11">
+        <v>826663</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="11">
+        <v>826658</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="11">
+        <v>838079</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="11">
+        <v>840870</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="11">
+        <v>840730</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="11">
+        <v>838037</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="11">
+        <v>840772</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="11">
+        <v>840729</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="11">
+        <v>840727</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="11">
+        <v>826656</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="11">
+        <v>840731</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="11">
+        <v>826660</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="11">
+        <v>838080</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="11">
+        <v>840775</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="11">
+        <v>840734</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="11">
+        <v>840735</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="11">
+        <v>840732</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E497"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C443" sqref="C443"/>
     </sheetView>
